--- a/apartmentManage/Data/employees.xlsx
+++ b/apartmentManage/Data/employees.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>employee_id</t>
   </si>
@@ -23,9 +23,6 @@
     <t>gender</t>
   </si>
   <si>
-    <t>dob</t>
-  </si>
-  <si>
     <t>phone_number</t>
   </si>
   <si>
@@ -38,58 +35,160 @@
     <t>salary</t>
   </si>
   <si>
+    <t>hire_date</t>
+  </si>
+  <si>
     <t>status</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>Nguyễn Văn A</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>0901234567</t>
+  </si>
+  <si>
+    <t>nguyenvana@email.com</t>
+  </si>
+  <si>
+    <t>Bảo vệ</t>
+  </si>
+  <si>
+    <t>8000000.00</t>
+  </si>
+  <si>
+    <t>2023-05-10</t>
+  </si>
+  <si>
+    <t>Đang làm việc</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Trần Thị B</t>
   </si>
   <si>
     <t>Nữ</t>
   </si>
   <si>
-    <t>2005-05-05</t>
-  </si>
-  <si>
-    <t>0909123459</t>
-  </si>
-  <si>
-    <t>tranthib@example.com</t>
+    <t>0912345678</t>
+  </si>
+  <si>
+    <t>tranthib@email.com</t>
   </si>
   <si>
     <t>Lễ tân</t>
   </si>
   <si>
-    <t>8000000.55</t>
-  </si>
-  <si>
-    <t>Làm việc</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Phạm Văn C</t>
-  </si>
-  <si>
-    <t>Nam</t>
-  </si>
-  <si>
-    <t>2003-03-03</t>
-  </si>
-  <si>
-    <t>0909123460</t>
-  </si>
-  <si>
-    <t>phamvanc@example.com</t>
+    <t>10000000.00</t>
+  </si>
+  <si>
+    <t>2022-08-15</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Lê Văn C</t>
+  </si>
+  <si>
+    <t>0923456789</t>
+  </si>
+  <si>
+    <t>levanc@email.com</t>
   </si>
   <si>
     <t>Kỹ thuật</t>
   </si>
   <si>
-    <t>10000000.00</t>
+    <t>12000000.00</t>
+  </si>
+  <si>
+    <t>2021-03-20</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Hoàng Mai D</t>
+  </si>
+  <si>
+    <t>Khác</t>
+  </si>
+  <si>
+    <t>0934567890</t>
+  </si>
+  <si>
+    <t>hoangmaid@email.com</t>
+  </si>
+  <si>
+    <t>Dọn dẹp</t>
+  </si>
+  <si>
+    <t>7500000.00</t>
+  </si>
+  <si>
+    <t>2024-01-05</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Phạm Nhật</t>
+  </si>
+  <si>
+    <t>0829907738</t>
+  </si>
+  <si>
+    <t>a@gmail.com</t>
+  </si>
+  <si>
+    <t>15000000.00</t>
+  </si>
+  <si>
+    <t>2025-04-01</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Phạm Lộc</t>
+  </si>
+  <si>
+    <t>0154785965</t>
+  </si>
+  <si>
+    <t>b@gmail.com</t>
+  </si>
+  <si>
+    <t>3300000.00</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Trần Nguyên</t>
+  </si>
+  <si>
+    <t>0253642589</t>
+  </si>
+  <si>
+    <t>c@gmail.com</t>
+  </si>
+  <si>
+    <t>5000000.00</t>
+  </si>
+  <si>
+    <t>2024-04-27</t>
   </si>
 </sst>
 </file>
@@ -134,7 +233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -227,6 +326,151 @@
         <v>17</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/apartmentManage/Data/employees.xlsx
+++ b/apartmentManage/Data/employees.xlsx
@@ -12,27 +12,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>employee_id</t>
   </si>
   <si>
-    <t>full_name</t>
+    <t>account_id</t>
   </si>
   <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>dob</t>
-  </si>
-  <si>
-    <t>phone_number</t>
-  </si>
-  <si>
-    <t>email</t>
+    <t>person_id</t>
   </si>
   <si>
     <t>position</t>
+  </si>
+  <si>
+    <t>shift</t>
   </si>
   <si>
     <t>salary</t>
@@ -44,52 +38,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>Trần Thị B</t>
+    <t>Bảo vệ</t>
   </si>
   <si>
-    <t>Nữ</t>
+    <t>Ca sáng</t>
   </si>
   <si>
-    <t>2005-05-05</t>
-  </si>
-  <si>
-    <t>0909123459</t>
-  </si>
-  <si>
-    <t>tranthib@example.com</t>
-  </si>
-  <si>
-    <t>Lễ tân</t>
-  </si>
-  <si>
-    <t>8000000.55</t>
+    <t>7000000.00</t>
   </si>
   <si>
     <t>Làm việc</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Phạm Văn C</t>
-  </si>
-  <si>
-    <t>Nam</t>
-  </si>
-  <si>
-    <t>2003-03-03</t>
-  </si>
-  <si>
-    <t>0909123460</t>
-  </si>
-  <si>
-    <t>phamvanc@example.com</t>
-  </si>
-  <si>
-    <t>Kỹ thuật</t>
-  </si>
-  <si>
-    <t>10000000.00</t>
   </si>
 </sst>
 </file>
@@ -134,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -162,69 +120,28 @@
       <c r="G1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s" s="0">
-        <v>8</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="F2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="G2" t="s" s="0">
         <v>11</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/apartmentManage/Data/employees.xlsx
+++ b/apartmentManage/Data/employees.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>employee_id</t>
   </si>
@@ -35,19 +35,64 @@
     <t>status</t>
   </si>
   <si>
-    <t>1</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>Bảo vệ</t>
   </si>
   <si>
+    <t>Ca tối</t>
+  </si>
+  <si>
+    <t>7500000.00</t>
+  </si>
+  <si>
+    <t>Làm việc</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>Ca sáng</t>
   </si>
   <si>
+    <t>8000000.00</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Lễ tân</t>
+  </si>
+  <si>
     <t>7000000.00</t>
   </si>
   <si>
-    <t>Làm việc</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Dọn dẹp</t>
+  </si>
+  <si>
+    <t>6500000.00</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -92,7 +137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -126,22 +171,114 @@
         <v>7</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="E3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="F4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s" s="0">
         <v>11</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
